--- a/Metropolitan Roads/27179/res_ITP-067-CIV-CAMMS-Line marking Rev 0.xlsx
+++ b/Metropolitan Roads/27179/res_ITP-067-CIV-CAMMS-Line marking Rev 0.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Metropolitan Roads\27179\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D94D8B-A0AC-47A1-894E-C9BC1F01B1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABBB982-4BDF-4A9F-85EC-C6F96D6E0E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7905" yWindow="1245" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9210" yWindow="1860" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$240</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$288</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="148">
   <si>
     <t>type</t>
   </si>
@@ -62,163 +62,424 @@
     <t>template name</t>
   </si>
   <si>
+    <t>– – – – – – – – – – – – – – – – –</t>
+  </si>
+  <si>
+    <t>Date Completed:</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>Referenced Documentation</t>
+  </si>
+  <si>
+    <t>Document Number (in Teambinder): MRP-0000-MRPA-ALT-ITP-00XX</t>
+  </si>
+  <si>
+    <t>Final Inspection</t>
+  </si>
+  <si>
+    <t>On behalf of Metropolitan Roads Program Alliance, it is hereby certified that the Works represented by the item of work listed have been tested in accordance with the Project Quality Plan and conform in all respects with the requirements of the Contract.</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Position:</t>
+  </si>
+  <si>
+    <t>Sign ITP</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>1.1 Non Dependent</t>
+  </si>
+  <si>
+    <t>1.2 Non Dependent</t>
+  </si>
+  <si>
+    <t>Preliminaries - Procedures &amp; Documentation</t>
+  </si>
+  <si>
+    <t>Preliminaries - Materials</t>
+  </si>
+  <si>
+    <t>Pre-construction Activities</t>
+  </si>
+  <si>
+    <t>Construction Activities</t>
+  </si>
+  <si>
+    <t>Post-construction Activities</t>
+  </si>
+  <si>
+    <t>1.3 Non Dependent</t>
+  </si>
+  <si>
+    <t>ITP-067-CIV-CAMMS-Line marking Rev 0</t>
+  </si>
+  <si>
+    <t>ITP-067-CIV-CAMMS-Line marking</t>
+  </si>
+  <si>
+    <t>Document Title: ITP-067-CIV-CAMMS-Line marking</t>
+  </si>
+  <si>
+    <t>ITP Description: CAMMS-Line marking</t>
+  </si>
+  <si>
+    <t>ITP number: 067-CIV</t>
+  </si>
+  <si>
+    <t>Discipline (e.g. CIV/STR/RAIL): CIV</t>
+  </si>
+  <si>
+    <t>Revision Number: 0</t>
+  </si>
+  <si>
+    <t>Revision Date: 13/10/2023</t>
+  </si>
+  <si>
+    <t>ITP created by: Victor Mira</t>
+  </si>
+  <si>
+    <t>ITP approved for use by: Victor Mira</t>
+  </si>
+  <si>
+    <t>Reference: Vicroads Section 175 November 2019</t>
+  </si>
+  <si>
+    <t>Reference: Vicroads Section 721 February 2017</t>
+  </si>
+  <si>
+    <t>Reference: Vicroads Section 853 February 1994</t>
+  </si>
+  <si>
+    <t>2.2 Type of marking material as shown on design drawings and shall conform to the Standard</t>
+  </si>
+  <si>
+    <t>REFERENCE: Vicroads 721.A05</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Type as per relevant design drawings, obtain Conformance Certificates and test reports from supplier</t>
+  </si>
+  <si>
+    <t>○ Provide the principle a list of materials that to be used with a certificate of conformance with associated test report</t>
+  </si>
+  <si>
+    <t>METHOD: Document Review</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Once</t>
+  </si>
+  <si>
+    <t>CATEGORY: IP</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: SE/PE/SPE</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: Material certificate</t>
+  </si>
+  <si>
+    <t>2.3 Raised Pavement Markers</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Raised pavement markers shall comply with the relevant requirements of AS 1906, Part 3 as listed in Section 175.</t>
+  </si>
+  <si>
+    <t>(ii) Temporary raised reflective pavement markers shall comply with the relevant requirements of AS 1906 as listed in Section 175, and shall be at least 100 mm in width and to a height of 50 mm with white reflective material on both sides and include protective covers for the reflective material</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Per Material</t>
+  </si>
+  <si>
+    <t>2.4 Adhesive</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Hot melt bitumen adhesive shall comply with Section 853 - Hot Melt Bitumen Adhesive for Raised Pavement Marker Installation.</t>
+  </si>
+  <si>
+    <t>○ Other types of adhesive materials shall only be used with the approval of the Superintendent</t>
+  </si>
+  <si>
+    <t>2.5 Line marking and Road marking Paint</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All paints shall be approved under the Australian Paint Approval Scheme (APAS). Paint shall comply with the requirements of AS 4049.1 for solvent-borne paint or AS/NZS 4049.3 for water-borne paint as listed in Section 175.</t>
+  </si>
+  <si>
+    <t>2.6 Glass beads</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Glass beads shall be used on all applications of material and for all pavement markings and shall conform to the requirements in AS/NZS 2009 and the Australian Paint Approval Scheme (APAS) Specification 0042.</t>
+  </si>
+  <si>
+    <t>2.1 Accreditation to Painting Contractors Certification Program</t>
+  </si>
+  <si>
+    <t>REFERENCE: Vicroads 721.D01</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>CATEGORY: HP</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Nominated Authority</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: ConQA Hold Point Release, PCCP Accreditation</t>
+  </si>
+  <si>
+    <t>NOMINATED AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>3.1 Surface preparation</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: The area to be marked is dry free of dirt, gravel, flaking and other loose foreign material</t>
+  </si>
+  <si>
+    <t>○ The area around making area is also clean to avoid tracking into the marking area</t>
+  </si>
+  <si>
+    <t>○ Removal of existing unsound, obsolete or redundant pavement markings</t>
+  </si>
+  <si>
+    <t>○ Removal of any foreign materials and debris within reasonable limits.</t>
+  </si>
+  <si>
+    <t>METHOD: Measure, Visual, Document Review</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Per Lot</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: This ITP</t>
+  </si>
+  <si>
+    <t>3.3 Redundant pavement / unsuitable marking markers removal</t>
+  </si>
+  <si>
+    <t>REFERENCE: Vicroads 721.A12, Vicroads 721.A06, Vicroads 721.A08</t>
+  </si>
+  <si>
+    <t>METHOD: Visual /Site Inspection &amp; Document Review</t>
+  </si>
+  <si>
+    <t>CATEGORY: HP*</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: ConQA Hold Point Release</t>
+  </si>
+  <si>
+    <t>3.2 Set out the works for installation of pavement markings / raised markers</t>
+  </si>
+  <si>
+    <t>REFERENCE: Vicroads 721.B05</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Painting/application of material shall not commence until the Superintendent has inspected the set out and given consent to proceed, unless a written exemption has been granted by the Superintendent</t>
+  </si>
+  <si>
+    <t>METHOD: Survey Document Review</t>
+  </si>
+  <si>
+    <t>3.4 Application of pavement marking / markers</t>
+  </si>
+  <si>
+    <t>(i) Paints and markers installed as per manufacturer’s recommendations.</t>
+  </si>
+  <si>
+    <t>(iv) Verify markings are straight or with smooth, even curves where intended.</t>
+  </si>
+  <si>
+    <t>3.5 Tolerances for new marking/marker installations</t>
+  </si>
+  <si>
+    <t>REFERENCE: Vicroads 721.A10 Table 721.A101</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Pavement marking :</t>
+  </si>
+  <si>
+    <t>Raised Pavement Markers:</t>
+  </si>
+  <si>
+    <t>(i)Markers in line with broken segments</t>
+  </si>
+  <si>
+    <t>(ii) Markers in a longitudinal group</t>
+  </si>
+  <si>
+    <t>(iii) Markers adjacent to an unbroken line</t>
+  </si>
+  <si>
+    <t>(i) Tolerances on dimension</t>
+  </si>
+  <si>
+    <t>(ii) Tolerances on position</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Provide evidence that the work is being undertaken by a contractor eligible for accreditation under painting Certification Program(PCCP). This Programme is administered by the CSIRO.</t>
+  </si>
+  <si>
+    <t>Enter: Teambinder Approval number</t>
+  </si>
+  <si>
+    <t>REFERENCE: Vicroads 721.A06, Vicroads 721.A09</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Where removal of existing pavement marking/unsuitable pavement marking to the standard is required, the method of removal shall be subject to the approval of the Superintendent before removal works commence.</t>
+  </si>
+  <si>
+    <t>REFERENCE: Vicroads 721</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Check conditions for application of marking paint &amp; materials.</t>
+  </si>
+  <si>
+    <t>(ii) The same materials used with those nominated in the certifications.</t>
+  </si>
+  <si>
+    <t>(ii) All longitudinal lines have been applied by the nominated machine unless approved by superintendent</t>
+  </si>
+  <si>
+    <t>(v) Edges are clean sharp cut off.</t>
+  </si>
+  <si>
+    <t>(vi) Markings uniform in appearance, texture, width &amp; thickness &amp; free from unbeaded areas</t>
+  </si>
+  <si>
+    <t>(vii) Waterorne Paint &amp; Glass Beads application rate conform to the requirements of Vic road 721.E01 requirements.</t>
+  </si>
+  <si>
+    <t>(viii) Markings are neat &amp; free from traffic damage or other defects</t>
+  </si>
+  <si>
+    <t>(ix) Marking protected from traffic until hardened</t>
+  </si>
+  <si>
+    <t>○ Width of completed markings for long life materials0 mm to +10 mm</t>
+  </si>
+  <si>
+    <t>○ Thermoplastic profiled lines</t>
+  </si>
+  <si>
+    <t>○ Distance between the centreline of the marking and the centreline of the set out mark - &lt;30 mm</t>
+  </si>
+  <si>
+    <t>○ Distance between the centreline of the completed marking and the centreline of the previous marking - &lt;15 mm</t>
+  </si>
+  <si>
+    <t>○ Width of completed painted markings - ±10 mm of the specified dimensions</t>
+  </si>
+  <si>
+    <t>○ Length of completed stripes and blocks - 0% to +10% of the specified length</t>
+  </si>
+  <si>
+    <t>○ Transverse position - ±25 mm of the centreline of segments</t>
+  </si>
+  <si>
+    <t>○ Longitudinal position - ±0.5 m of the specified position</t>
+  </si>
+  <si>
+    <t>○ Transverse position - ±25 mm of specified position and ±10 mm of a line joining the centres of the end markers</t>
+  </si>
+  <si>
+    <t>○ Longitudinal position - ±0.5 m</t>
+  </si>
+  <si>
+    <t>○ Spacing of markers within the group - 50 mm of specified spacing</t>
+  </si>
+  <si>
+    <t>○ Clearance to edge line - ±5 mm of the specified dimensions</t>
+  </si>
+  <si>
+    <t>○ Longitudinal mismatch between markers in transverse pairs - &lt;25 mm</t>
+  </si>
+  <si>
+    <t>○ Longitudinal position - Lesser of: 0.5 m or 10%</t>
+  </si>
+  <si>
+    <t>(iv) Orientation of reflective markers - Lower edge of the reflective face at 85º to 95º to centreline of roadway or adjacent line</t>
+  </si>
+  <si>
+    <t>○ Extrusion spacing - ±15 mm</t>
+  </si>
+  <si>
+    <t>○ Extrusion shape - ±25 mm at any point from rectangular shape</t>
+  </si>
+  <si>
+    <t>○ Distance between the centreline of the marking and the centreline of the set out - &lt;30 mm</t>
+  </si>
+  <si>
+    <t>○ Longitudinal position of individual extrusions - ±50 mm of any previously applied profiled lining</t>
+  </si>
+  <si>
+    <t>○ Gap between double lines - - 10 mm to +0 mm of the required 100 mm gap</t>
+  </si>
+  <si>
+    <t>○ Line width - +20 mm, - 5 mm</t>
+  </si>
+  <si>
+    <t>○ Line height - +2 mm, - 0 mm</t>
+  </si>
+  <si>
+    <t>○ Extrusion breadth - +10 mm, - 0 mm</t>
+  </si>
+  <si>
+    <t>○ Length of the completed lines - - 0% to +5% of the specified length</t>
+  </si>
+  <si>
+    <t>3.6 Retroreflectivity Report</t>
+  </si>
+  <si>
+    <t>REFERENCE: Vicroads 721.B06 (b)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Complete and forward Retro reflectivity Report in a form approved by the Superintendent showing the level of retro reflectivity determined for each test lot in accordance with the requirements of Clause 721.A12.</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Per lot</t>
+  </si>
+  <si>
+    <t>Job Completion Report</t>
+  </si>
+  <si>
+    <t>REFERENCE: Vicroads 721.B06 (a)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: For New Markings the Contractor shall complete and forward to the Superintendent a Job Completion Report (Pavement Markings).</t>
+  </si>
+  <si>
+    <t>METHOD: Document review</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Per lot When applicable</t>
+  </si>
+  <si>
     <t>itp</t>
-  </si>
-  <si>
-    <t>– – – – – – – – – – – – – – – – –</t>
-  </si>
-  <si>
-    <t>Date Completed:</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>holdpoint</t>
-  </si>
-  <si>
-    <t>Referenced Documentation</t>
-  </si>
-  <si>
-    <t>Document Number (in Teambinder): MRP-0000-MRPA-ALT-ITP-00XX</t>
-  </si>
-  <si>
-    <t>Final Inspection</t>
-  </si>
-  <si>
-    <t>On behalf of Metropolitan Roads Program Alliance, it is hereby certified that the Works represented by the item of work listed have been tested in accordance with the Project Quality Plan and conform in all respects with the requirements of the Contract.</t>
-  </si>
-  <si>
-    <t>Name:</t>
-  </si>
-  <si>
-    <t>Position:</t>
-  </si>
-  <si>
-    <t>Sign ITP</t>
-  </si>
-  <si>
-    <t>checklist</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>checkpoint</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>1.1 Non Dependent</t>
-  </si>
-  <si>
-    <t>1.2 Non Dependent</t>
-  </si>
-  <si>
-    <t>Preliminaries - Procedures &amp; Documentation</t>
-  </si>
-  <si>
-    <t>Preliminaries - Materials</t>
-  </si>
-  <si>
-    <t>Pre-construction Activities</t>
-  </si>
-  <si>
-    <t>Construction Activities</t>
-  </si>
-  <si>
-    <t>Post-construction Activities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Title: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITP Description: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITP number: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discipline (e.g. CIV/STR/RAIL): </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revision Number: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revision Date: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITP created by: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITP approved for use by: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFERENCE: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCEPTANCE CRITERIA: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">METHOD: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREQUENCY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATEGORY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESPONSIBILITY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERIFYING DOCUMENTS: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3 </t>
-  </si>
-  <si>
-    <t>1.3 Non Dependent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6 </t>
   </si>
 </sst>
 </file>
@@ -370,7 +631,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,6 +836,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +1006,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -763,6 +1030,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1120,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I240"/>
+  <dimension ref="A1:I288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,1923 +1437,2313 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>55</v>
+      <c r="A51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>9</v>
+      <c r="A53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>56</v>
+      <c r="A66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>43</v>
+      <c r="A69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>57</v>
+      <c r="A81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>43</v>
+      <c r="A84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>57</v>
+      <c r="A96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>43</v>
+      <c r="A99" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>27</v>
+      <c r="A111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>41</v>
+      <c r="A112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>9</v>
+      <c r="A114" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>43</v>
+      <c r="A115" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>29</v>
+      <c r="A127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>49</v>
+      <c r="A128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>43</v>
+      <c r="A131" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>9</v>
+      <c r="A132" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>44</v>
+      <c r="A133" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>51</v>
+      <c r="A143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>9</v>
+      <c r="A151" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>50</v>
+      <c r="A158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>9</v>
+      <c r="A166" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>30</v>
+      <c r="A173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>58</v>
+      <c r="A174" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>45</v>
+      <c r="A181" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>9</v>
+      <c r="A182" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>46</v>
+      <c r="A183" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>59</v>
+      <c r="A189" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>31</v>
+      <c r="A204" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>60</v>
+      <c r="A205" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>9</v>
+      <c r="A207" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B220" s="5"/>
+      <c r="A220" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="7" t="s">
+      <c r="A235" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B251" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B284" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="7" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B236" s="7" t="s">
+      <c r="B285" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="7" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B237" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B238" s="7" t="s">
+      <c r="B288" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B239" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B240" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I240" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I288" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
